--- a/sprint10/dades_GrupD.xlsx
+++ b/sprint10/dades_GrupD.xlsx
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2.611</v>
+        <v>2611</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
@@ -616,7 +616,7 @@
         <v>0.08</v>
       </c>
       <c r="T2" t="n">
-        <v>2.81988</v>
+        <v>2819.88</v>
       </c>
     </row>
     <row r="3">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2.81</v>
+        <v>2810</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>0.08</v>
       </c>
       <c r="T3" t="n">
-        <v>3.0348</v>
+        <v>3034.8</v>
       </c>
     </row>
     <row r="4">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2.596</v>
+        <v>2596</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
@@ -776,7 +776,7 @@
         <v>0.08</v>
       </c>
       <c r="T4" t="n">
-        <v>2.80368</v>
+        <v>2803.68</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2.679</v>
+        <v>2679</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
@@ -856,7 +856,7 @@
         <v>0.08</v>
       </c>
       <c r="T5" t="n">
-        <v>2.89332</v>
+        <v>2893.32</v>
       </c>
     </row>
     <row r="6">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2.661</v>
+        <v>2661</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
@@ -936,7 +936,7 @@
         <v>0.08</v>
       </c>
       <c r="T6" t="n">
-        <v>2.87388</v>
+        <v>2873.88</v>
       </c>
     </row>
     <row r="7">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3.04</v>
+        <v>3040</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
@@ -1016,7 +1016,7 @@
         <v>0.08</v>
       </c>
       <c r="T7" t="n">
-        <v>3.2832</v>
+        <v>3283.2</v>
       </c>
     </row>
     <row r="8">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2.668</v>
+        <v>2668</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>0.08</v>
       </c>
       <c r="T8" t="n">
-        <v>2.88144</v>
+        <v>2881.44</v>
       </c>
     </row>
     <row r="9">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2.448</v>
+        <v>2448</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
@@ -1176,7 +1176,7 @@
         <v>0.08</v>
       </c>
       <c r="T9" t="n">
-        <v>2.64384</v>
+        <v>2643.84</v>
       </c>
     </row>
     <row r="10">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2.885</v>
+        <v>2885</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1256,7 +1256,7 @@
         <v>0.08</v>
       </c>
       <c r="T10" t="n">
-        <v>3.1158</v>
+        <v>3115.8</v>
       </c>
     </row>
     <row r="11">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2.85</v>
+        <v>2850</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
@@ -1336,7 +1336,7 @@
         <v>0.08</v>
       </c>
       <c r="T11" t="n">
-        <v>3.078</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="12">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3.283</v>
+        <v>3283</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
@@ -1416,7 +1416,7 @@
         <v>0.08</v>
       </c>
       <c r="T12" t="n">
-        <v>3.54564</v>
+        <v>3545.64</v>
       </c>
     </row>
     <row r="13">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2.742</v>
+        <v>2742</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
@@ -1496,7 +1496,7 @@
         <v>0.08</v>
       </c>
       <c r="T13" t="n">
-        <v>2.96136</v>
+        <v>2961.36</v>
       </c>
     </row>
     <row r="14">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2.861</v>
+        <v>2861</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
@@ -1576,7 +1576,7 @@
         <v>0.08</v>
       </c>
       <c r="T14" t="n">
-        <v>3.08988</v>
+        <v>3089.88</v>
       </c>
     </row>
     <row r="15">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2.948</v>
+        <v>2948</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1656,7 +1656,7 @@
         <v>0.08</v>
       </c>
       <c r="T15" t="n">
-        <v>3.18384</v>
+        <v>3183.84</v>
       </c>
     </row>
     <row r="16">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2.756</v>
+        <v>2756</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
@@ -1736,7 +1736,7 @@
         <v>0.08</v>
       </c>
       <c r="T16" t="n">
-        <v>2.97648</v>
+        <v>2976.48</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2.785</v>
+        <v>2785</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1805,7 +1805,7 @@
         <v>36833</v>
       </c>
       <c r="Q17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
         <v>0.08</v>
       </c>
       <c r="T17" t="n">
-        <v>3.0078</v>
+        <v>3007.8</v>
       </c>
     </row>
     <row r="18">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2.791</v>
+        <v>2791</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
@@ -1896,7 +1896,7 @@
         <v>0.08</v>
       </c>
       <c r="T18" t="n">
-        <v>3.01428</v>
+        <v>3014.28</v>
       </c>
     </row>
     <row r="19">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2.894</v>
+        <v>2894</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
@@ -1976,7 +1976,7 @@
         <v>0.08</v>
       </c>
       <c r="T19" t="n">
-        <v>3.12552</v>
+        <v>3125.52</v>
       </c>
     </row>
     <row r="20">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3.175</v>
+        <v>3175</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
@@ -2056,7 +2056,7 @@
         <v>0.08</v>
       </c>
       <c r="T20" t="n">
-        <v>3.429</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="21">
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2.605</v>
+        <v>2605</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -2136,7 +2136,7 @@
         <v>0.08</v>
       </c>
       <c r="T21" t="n">
-        <v>2.8134</v>
+        <v>2813.4</v>
       </c>
     </row>
     <row r="22">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2.653</v>
+        <v>2653</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -2216,7 +2216,7 @@
         <v>0.08</v>
       </c>
       <c r="T22" t="n">
-        <v>2.86524</v>
+        <v>2865.24</v>
       </c>
     </row>
     <row r="23">
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2.433</v>
+        <v>2433</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -2296,7 +2296,7 @@
         <v>0.08</v>
       </c>
       <c r="T23" t="n">
-        <v>2.62764</v>
+        <v>2627.64</v>
       </c>
     </row>
     <row r="24">
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2.969</v>
+        <v>2969</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
@@ -2376,7 +2376,7 @@
         <v>0.08</v>
       </c>
       <c r="T24" t="n">
-        <v>3.20652</v>
+        <v>3206.52</v>
       </c>
     </row>
     <row r="25">
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3.318</v>
+        <v>3318</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -2456,7 +2456,7 @@
         <v>0.08</v>
       </c>
       <c r="T25" t="n">
-        <v>3.58344</v>
+        <v>3583.44</v>
       </c>
     </row>
     <row r="26">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2.825</v>
+        <v>2825</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         <v>0.08</v>
       </c>
       <c r="T26" t="n">
-        <v>3.051000000000001</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="27">
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2.964</v>
+        <v>2964</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
@@ -2616,7 +2616,7 @@
         <v>0.08</v>
       </c>
       <c r="T27" t="n">
-        <v>3.20112</v>
+        <v>3201.12</v>
       </c>
     </row>
     <row r="28">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2.396</v>
+        <v>2396</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
@@ -2696,7 +2696,7 @@
         <v>0.08</v>
       </c>
       <c r="T28" t="n">
-        <v>2.58768</v>
+        <v>2587.68</v>
       </c>
     </row>
     <row r="29">
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2.683</v>
+        <v>2683</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
@@ -2776,7 +2776,7 @@
         <v>0.08</v>
       </c>
       <c r="T29" t="n">
-        <v>2.89764</v>
+        <v>2897.64</v>
       </c>
     </row>
     <row r="30">
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3.014</v>
+        <v>3014</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
@@ -2856,7 +2856,7 @@
         <v>0.08</v>
       </c>
       <c r="T30" t="n">
-        <v>3.25512</v>
+        <v>3255.12</v>
       </c>
     </row>
     <row r="31">
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2.778</v>
+        <v>2778</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
@@ -2936,7 +2936,7 @@
         <v>0.08</v>
       </c>
       <c r="T31" t="n">
-        <v>3.00024</v>
+        <v>3000.24</v>
       </c>
     </row>
     <row r="32">
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2.951</v>
+        <v>2951</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -3016,7 +3016,7 @@
         <v>0.08</v>
       </c>
       <c r="T32" t="n">
-        <v>3.18708</v>
+        <v>3187.08</v>
       </c>
     </row>
     <row r="33">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2.917</v>
+        <v>2917</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -3096,7 +3096,7 @@
         <v>0.08</v>
       </c>
       <c r="T33" t="n">
-        <v>3.15036</v>
+        <v>3150.36</v>
       </c>
     </row>
     <row r="34">
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2.821</v>
+        <v>2821</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
@@ -3176,7 +3176,7 @@
         <v>0.08</v>
       </c>
       <c r="T34" t="n">
-        <v>3.04668</v>
+        <v>3046.68</v>
       </c>
     </row>
     <row r="35">
@@ -3215,7 +3215,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3.329</v>
+        <v>3329</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -3256,7 +3256,7 @@
         <v>0.08</v>
       </c>
       <c r="T35" t="n">
-        <v>3.595320000000001</v>
+        <v>3595.32</v>
       </c>
     </row>
     <row r="36">
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2.975</v>
+        <v>2975</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
@@ -3336,7 +3336,7 @@
         <v>0.08</v>
       </c>
       <c r="T36" t="n">
-        <v>3.213000000000001</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="37">
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>3.021</v>
+        <v>3021</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -3416,7 +3416,7 @@
         <v>0.08</v>
       </c>
       <c r="T37" t="n">
-        <v>3.26268</v>
+        <v>3262.68</v>
       </c>
     </row>
     <row r="38">
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3.253</v>
+        <v>3253</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -3496,7 +3496,7 @@
         <v>0.08</v>
       </c>
       <c r="T38" t="n">
-        <v>3.51324</v>
+        <v>3513.24</v>
       </c>
     </row>
     <row r="39">
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2.754</v>
+        <v>2754</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -3576,7 +3576,7 @@
         <v>0.08</v>
       </c>
       <c r="T39" t="n">
-        <v>2.97432</v>
+        <v>2974.32</v>
       </c>
     </row>
     <row r="40">
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2.882</v>
+        <v>2882</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
@@ -3656,7 +3656,7 @@
         <v>0.08</v>
       </c>
       <c r="T40" t="n">
-        <v>3.11256</v>
+        <v>3112.56</v>
       </c>
     </row>
     <row r="41">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2.952</v>
+        <v>2952</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
@@ -3736,7 +3736,7 @@
         <v>0.08</v>
       </c>
       <c r="T41" t="n">
-        <v>3.18816</v>
+        <v>3188.16</v>
       </c>
     </row>
     <row r="42">
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2.91</v>
+        <v>2910</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
@@ -3816,7 +3816,7 @@
         <v>0.08</v>
       </c>
       <c r="T42" t="n">
-        <v>3.1428</v>
+        <v>3142.8</v>
       </c>
     </row>
     <row r="43">
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2.899</v>
+        <v>2899</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
@@ -3896,7 +3896,7 @@
         <v>0.08</v>
       </c>
       <c r="T43" t="n">
-        <v>3.13092</v>
+        <v>3130.92</v>
       </c>
     </row>
     <row r="44">
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2.973</v>
+        <v>2973</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
@@ -3976,7 +3976,7 @@
         <v>0.08</v>
       </c>
       <c r="T44" t="n">
-        <v>3.21084</v>
+        <v>3210.84</v>
       </c>
     </row>
     <row r="45">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3.258</v>
+        <v>3258</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
@@ -4056,7 +4056,7 @@
         <v>0.08</v>
       </c>
       <c r="T45" t="n">
-        <v>3.51864</v>
+        <v>3518.64</v>
       </c>
     </row>
     <row r="46">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3.142</v>
+        <v>3142</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -4136,7 +4136,7 @@
         <v>0.08</v>
       </c>
       <c r="T46" t="n">
-        <v>3.39336</v>
+        <v>3393.36</v>
       </c>
     </row>
     <row r="47">
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2.615</v>
+        <v>2615</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -4216,7 +4216,7 @@
         <v>0.08</v>
       </c>
       <c r="T47" t="n">
-        <v>2.8242</v>
+        <v>2824.2</v>
       </c>
     </row>
     <row r="48">
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3.356</v>
+        <v>3356</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
@@ -4296,7 +4296,7 @@
         <v>0.08</v>
       </c>
       <c r="T48" t="n">
-        <v>3.62448</v>
+        <v>3624.48</v>
       </c>
     </row>
     <row r="49">
@@ -4335,7 +4335,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2.984</v>
+        <v>2984</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
@@ -4376,7 +4376,7 @@
         <v>0.08</v>
       </c>
       <c r="T49" t="n">
-        <v>3.22272</v>
+        <v>3222.72</v>
       </c>
     </row>
     <row r="50">
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2.905</v>
+        <v>2905</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
@@ -4456,7 +4456,7 @@
         <v>0.08</v>
       </c>
       <c r="T50" t="n">
-        <v>3.1374</v>
+        <v>3137.4</v>
       </c>
     </row>
     <row r="51">
@@ -4495,7 +4495,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2.864</v>
+        <v>2864</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -4536,7 +4536,7 @@
         <v>0.08</v>
       </c>
       <c r="T51" t="n">
-        <v>3.09312</v>
+        <v>3093.12</v>
       </c>
     </row>
     <row r="52">
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3.257</v>
+        <v>3257</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -4616,7 +4616,7 @@
         <v>0.08</v>
       </c>
       <c r="T52" t="n">
-        <v>3.51756</v>
+        <v>3517.56</v>
       </c>
     </row>
     <row r="53">
@@ -4655,7 +4655,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2.376</v>
+        <v>2376</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -4696,7 +4696,7 @@
         <v>0.08</v>
       </c>
       <c r="T53" t="n">
-        <v>2.56608</v>
+        <v>2566.08</v>
       </c>
     </row>
     <row r="54">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2.765</v>
+        <v>2765</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
@@ -4776,7 +4776,7 @@
         <v>0.08</v>
       </c>
       <c r="T54" t="n">
-        <v>2.9862</v>
+        <v>2986.2</v>
       </c>
     </row>
     <row r="55">
@@ -4815,7 +4815,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3.002</v>
+        <v>3002</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
@@ -4856,7 +4856,7 @@
         <v>0.08</v>
       </c>
       <c r="T55" t="n">
-        <v>3.24216</v>
+        <v>3242.16</v>
       </c>
     </row>
     <row r="56">
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2.63</v>
+        <v>2630</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
@@ -4936,7 +4936,7 @@
         <v>0.08</v>
       </c>
       <c r="T56" t="n">
-        <v>2.8404</v>
+        <v>2840.4</v>
       </c>
     </row>
   </sheetData>
